--- a/tut05/output/0501EE11.xlsx
+++ b/tut05/output/0501EE11.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.061224489795919</v>
+        <v>9.06</v>
       </c>
       <c r="C6" t="n">
-        <v>8.681818181818182</v>
+        <v>8.68</v>
       </c>
       <c r="D6" t="n">
-        <v>8.717391304347826</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>9.043478260869565</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>8.692307692307692</v>
+        <v>8.69</v>
       </c>
       <c r="G6" t="n">
-        <v>8.375</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>7.674418604651163</v>
+        <v>7.67</v>
       </c>
       <c r="I6" t="n">
-        <v>8.263157894736842</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.061224489795919</v>
+        <v>9.06</v>
       </c>
       <c r="C8" t="n">
-        <v>8.881720430107526</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>8.827338129496402</v>
+        <v>8.83</v>
       </c>
       <c r="E8" t="n">
-        <v>8.881081081081081</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.848214285714286</v>
+        <v>8.85</v>
       </c>
       <c r="G8" t="n">
-        <v>8.776515151515152</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>8.62214983713355</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.582608695652175</v>
+        <v>8.58</v>
       </c>
     </row>
   </sheetData>
